--- a/CajaNegra.xlsx
+++ b/CajaNegra.xlsx
@@ -1054,275 +1054,275 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2534,7 +2534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C57" sqref="C57:C59"/>
     </sheetView>
   </sheetViews>
@@ -2568,24 +2568,24 @@
       <c r="C2" s="21"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="43" t="s">
+      <c r="F2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="43" t="s">
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="45"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="37"/>
     </row>
     <row r="3" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21"/>
@@ -2596,95 +2596,95 @@
       <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="40" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="16"/>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="40" t="s">
         <v>41</v>
       </c>
       <c r="K4" s="16"/>
-      <c r="L4" s="50" t="s">
+      <c r="L4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="46" t="s">
+      <c r="M4" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="48" t="s">
+      <c r="N4" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="48" t="s">
+      <c r="O4" s="40" t="s">
         <v>40</v>
       </c>
       <c r="P4" s="16"/>
-      <c r="Q4" s="48" t="s">
+      <c r="Q4" s="40" t="s">
         <v>41</v>
       </c>
       <c r="R4" s="16"/>
-      <c r="S4" s="50" t="s">
+      <c r="S4" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F5" s="77"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="78"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
       <c r="P5" s="17"/>
-      <c r="Q5" s="49"/>
+      <c r="Q5" s="41"/>
       <c r="R5" s="17"/>
-      <c r="S5" s="51"/>
+      <c r="S5" s="43"/>
     </row>
     <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="70">
+      <c r="F6" s="87">
         <v>1</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="65" t="s">
+      <c r="J6" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="59" t="s">
+      <c r="K6" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="74" t="s">
+      <c r="L6" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="39">
+      <c r="M6" s="44">
         <v>6</v>
       </c>
-      <c r="N6" s="33" t="s">
+      <c r="N6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="O6" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P6" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="Q6" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="R6" s="23" t="s">
+      <c r="R6" s="24" t="s">
         <v>43</v>
       </c>
       <c r="S6" s="30" t="s">
@@ -2692,159 +2692,159 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="70"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="74"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="23"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="24"/>
       <c r="S7" s="30"/>
     </row>
     <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="70"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="59" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="65" t="s">
+      <c r="J8" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="K8" s="59" t="s">
+      <c r="K8" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="74" t="s">
+      <c r="L8" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="39"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="28"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="31"/>
     </row>
     <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="70"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="59"/>
-      <c r="L9" s="74"/>
-      <c r="M9" s="39"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="22" t="s">
+      <c r="F9" s="87"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q9" s="55" t="s">
+      <c r="Q9" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="R9" s="22" t="s">
+      <c r="R9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="52" t="s">
+      <c r="S9" s="49" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="70"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="53"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="50"/>
     </row>
     <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F11" s="70"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="59" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="65" t="s">
+      <c r="J11" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="59" t="s">
+      <c r="K11" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L11" s="76" t="s">
+      <c r="L11" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="56"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="53"/>
+      <c r="M11" s="44"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="50"/>
     </row>
     <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="70"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="53"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="86"/>
+      <c r="H12" s="86"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="93"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="47"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="50"/>
     </row>
     <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F13" s="70"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="54"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="51"/>
     </row>
     <row r="14" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" s="70"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="65"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="22" t="s">
+      <c r="F14" s="87"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="91"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="R14" s="22" t="s">
+      <c r="R14" s="23" t="s">
         <v>48</v>
       </c>
       <c r="S14" s="29" t="s">
@@ -2852,77 +2852,77 @@
       </c>
     </row>
     <row r="15" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F15" s="70">
+      <c r="F15" s="87">
         <v>2</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="I15" s="59" t="s">
+      <c r="I15" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="K15" s="59" t="s">
+      <c r="K15" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="74" t="s">
+      <c r="L15" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="23"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="24"/>
       <c r="S15" s="30"/>
     </row>
     <row r="16" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="70"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="59"/>
-      <c r="L16" s="74"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="28"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="91"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="25"/>
       <c r="S16" s="31"/>
     </row>
     <row r="17" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="70"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="59" t="s">
+      <c r="F17" s="87"/>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="65" t="s">
+      <c r="J17" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="K17" s="59" t="s">
+      <c r="K17" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="74" t="s">
+      <c r="L17" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="22" t="s">
+      <c r="M17" s="44"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="32" t="s">
+      <c r="Q17" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="R17" s="22" t="s">
+      <c r="R17" s="23" t="s">
         <v>67</v>
       </c>
       <c r="S17" s="29" t="s">
@@ -2930,85 +2930,85 @@
       </c>
     </row>
     <row r="18" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F18" s="70"/>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="74"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="23"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="91"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="24"/>
       <c r="S18" s="30"/>
     </row>
     <row r="19" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="70"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="74"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="23"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="91"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="24"/>
       <c r="S19" s="30"/>
     </row>
     <row r="20" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="70"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="39"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="28"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="86"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="31"/>
     </row>
     <row r="21" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="70">
+      <c r="F21" s="87">
         <v>3</v>
       </c>
-      <c r="G21" s="65" t="s">
+      <c r="G21" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="H21" s="65" t="s">
+      <c r="H21" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="I21" s="59" t="s">
+      <c r="I21" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="J21" s="65" t="s">
+      <c r="J21" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="K21" s="59" t="s">
+      <c r="K21" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="74" t="s">
+      <c r="L21" s="92" t="s">
         <v>58</v>
       </c>
-      <c r="M21" s="39"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="22" t="s">
+      <c r="M21" s="44"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q21" s="32" t="s">
+      <c r="Q21" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="R21" s="22" t="s">
+      <c r="R21" s="23" t="s">
         <v>70</v>
       </c>
       <c r="S21" s="29" t="s">
@@ -3016,79 +3016,79 @@
       </c>
     </row>
     <row r="22" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F22" s="70"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="74"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="23"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="91"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="24"/>
       <c r="S22" s="30"/>
     </row>
     <row r="23" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F23" s="70"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="59" t="s">
+      <c r="F23" s="87"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="86"/>
+      <c r="I23" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="J23" s="65" t="s">
+      <c r="J23" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="59" t="s">
+      <c r="K23" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L23" s="74" t="s">
+      <c r="L23" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="23"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="24"/>
       <c r="S23" s="30"/>
     </row>
     <row r="24" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="70"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="74"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="28"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="91"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="91"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="25"/>
       <c r="S24" s="31"/>
     </row>
     <row r="25" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="70"/>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="65"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="74"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="22" t="s">
+      <c r="F25" s="87"/>
+      <c r="G25" s="86"/>
+      <c r="H25" s="86"/>
+      <c r="I25" s="91"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="91"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q25" s="32" t="s">
+      <c r="Q25" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R25" s="22" t="s">
+      <c r="R25" s="23" t="s">
         <v>74</v>
       </c>
       <c r="S25" s="29" t="s">
@@ -3096,79 +3096,79 @@
       </c>
     </row>
     <row r="26" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F26" s="70"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="65"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="23"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="91"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="24"/>
       <c r="S26" s="30"/>
     </row>
     <row r="27" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F27" s="70"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="59" t="s">
+      <c r="F27" s="87"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="86"/>
+      <c r="I27" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="65" t="s">
+      <c r="J27" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="K27" s="59" t="s">
+      <c r="K27" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="74" t="s">
+      <c r="L27" s="92" t="s">
         <v>69</v>
       </c>
-      <c r="M27" s="39"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="23"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="24"/>
       <c r="S27" s="30"/>
     </row>
     <row r="28" spans="6:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F28" s="70"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="65"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="40"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="58"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="91"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="32"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="34"/>
     </row>
     <row r="29" spans="6:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="70"/>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="65"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="74"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="91"/>
+      <c r="L29" s="92"/>
       <c r="M29" s="13"/>
     </row>
     <row r="30" spans="6:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="71"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="75"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="95"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="97"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="6:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3176,143 +3176,143 @@
     </row>
     <row r="32" spans="6:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="73" t="s">
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="73"/>
-      <c r="I33" s="73"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="73"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="43" t="s">
+      <c r="G33" s="94"/>
+      <c r="H33" s="94"/>
+      <c r="I33" s="94"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
+      <c r="M33" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44"/>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
-      <c r="S33" s="45"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="37"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="82" t="s">
+      <c r="A35" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="46" t="s">
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G35" s="48" t="s">
+      <c r="G35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H35" s="48" t="s">
+      <c r="H35" s="40" t="s">
         <v>40</v>
       </c>
       <c r="I35" s="16"/>
-      <c r="J35" s="48" t="s">
+      <c r="J35" s="40" t="s">
         <v>41</v>
       </c>
       <c r="K35" s="16"/>
-      <c r="L35" s="50" t="s">
+      <c r="L35" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="46" t="s">
+      <c r="M35" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="48" t="s">
+      <c r="N35" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O35" s="48" t="s">
+      <c r="O35" s="40" t="s">
         <v>40</v>
       </c>
       <c r="P35" s="19"/>
-      <c r="Q35" s="48" t="s">
+      <c r="Q35" s="40" t="s">
         <v>41</v>
       </c>
       <c r="R35" s="19"/>
-      <c r="S35" s="50" t="s">
+      <c r="S35" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F36" s="47"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="49"/>
+      <c r="J36" s="41"/>
       <c r="K36" s="17"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
       <c r="P36" s="20"/>
-      <c r="Q36" s="49"/>
+      <c r="Q36" s="41"/>
       <c r="R36" s="20"/>
-      <c r="S36" s="51"/>
+      <c r="S36" s="43"/>
     </row>
     <row r="37" spans="1:19" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="80" t="s">
+      <c r="B37" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80" t="s">
+      <c r="C37" s="66"/>
+      <c r="D37" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="81"/>
-      <c r="F37" s="69">
+      <c r="E37" s="68"/>
+      <c r="F37" s="99">
         <v>4</v>
       </c>
-      <c r="G37" s="72" t="s">
+      <c r="G37" s="100" t="s">
         <v>63</v>
       </c>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I37" s="63" t="s">
+      <c r="I37" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="72" t="s">
+      <c r="J37" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="K37" s="63" t="s">
+      <c r="K37" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="L37" s="64" t="s">
+      <c r="L37" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="M37" s="39">
+      <c r="M37" s="44">
         <v>7</v>
       </c>
-      <c r="N37" s="33" t="s">
+      <c r="N37" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="O37" s="33" t="s">
+      <c r="O37" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="P37" s="23" t="s">
+      <c r="P37" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="Q37" s="33" t="s">
+      <c r="Q37" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="R37" s="23" t="s">
+      <c r="R37" s="24" t="s">
         <v>43</v>
       </c>
       <c r="S37" s="30" t="s">
@@ -3320,13 +3320,13 @@
       </c>
     </row>
     <row r="38" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="98" t="s">
+      <c r="A38" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="39">
+      <c r="B38" s="44">
         <v>1</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="58" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="3">
@@ -3335,54 +3335,54 @@
       <c r="E38" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F38" s="70"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="61"/>
-      <c r="M38" s="39"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="23"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="103"/>
+      <c r="M38" s="44"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="24"/>
       <c r="S38" s="30"/>
     </row>
     <row r="39" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="99"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="101"/>
+      <c r="A39" s="64"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="67"/>
       <c r="D39" s="4">
         <v>3</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="65"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="61"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="28"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="44"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="28"/>
+      <c r="R39" s="25"/>
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="52">
         <v>4</v>
       </c>
-      <c r="C40" s="103" t="s">
+      <c r="C40" s="57" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="4">
@@ -3391,70 +3391,70 @@
       <c r="E40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="70"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="59" t="s">
+      <c r="F40" s="87"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="K40" s="59" t="s">
+      <c r="K40" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L40" s="67" t="s">
+      <c r="L40" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="M40" s="39"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="22" t="s">
+      <c r="M40" s="44"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q40" s="55" t="s">
+      <c r="Q40" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="R40" s="22" t="s">
+      <c r="R40" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="S40" s="52" t="s">
+      <c r="S40" s="49" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="99"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="101"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="67"/>
       <c r="D41" s="4">
         <v>6</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="59"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="23"/>
-      <c r="S41" s="53"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="91"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="91"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="47"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="50"/>
     </row>
     <row r="42" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="83" t="s">
+      <c r="A42" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42" s="52">
         <v>7</v>
       </c>
-      <c r="C42" s="87" t="s">
+      <c r="C42" s="70" t="s">
         <v>20</v>
       </c>
       <c r="D42" s="4">
@@ -3463,79 +3463,79 @@
       <c r="E42" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F42" s="70"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="67"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="53"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86"/>
+      <c r="I42" s="91"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="91"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="44"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="24"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="50"/>
     </row>
     <row r="43" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="88"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="4">
         <v>9</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F43" s="70"/>
-      <c r="G43" s="65"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="59"/>
-      <c r="J43" s="68"/>
-      <c r="K43" s="59"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="53"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="91"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="91"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="44"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="47"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="50"/>
     </row>
     <row r="44" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="84"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="89"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="4">
         <v>10</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="65"/>
-      <c r="H44" s="65"/>
-      <c r="I44" s="59"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="59"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="28"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="28"/>
-      <c r="S44" s="54"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="86"/>
+      <c r="H44" s="86"/>
+      <c r="I44" s="91"/>
+      <c r="J44" s="104"/>
+      <c r="K44" s="91"/>
+      <c r="L44" s="105"/>
+      <c r="M44" s="44"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="25"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="25"/>
+      <c r="S44" s="51"/>
     </row>
     <row r="45" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="83" t="s">
+      <c r="A45" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45" s="52">
         <v>11</v>
       </c>
-      <c r="C45" s="87" t="s">
+      <c r="C45" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="4">
@@ -3544,31 +3544,31 @@
       <c r="E45" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="65"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="59" t="s">
+      <c r="F45" s="87"/>
+      <c r="G45" s="86"/>
+      <c r="H45" s="86"/>
+      <c r="I45" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="J45" s="65" t="s">
+      <c r="J45" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="K45" s="59" t="s">
+      <c r="K45" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L45" s="61" t="s">
+      <c r="L45" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="22" t="s">
+      <c r="M45" s="44"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q45" s="32" t="s">
+      <c r="Q45" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="R45" s="22" t="s">
+      <c r="R45" s="23" t="s">
         <v>48</v>
       </c>
       <c r="S45" s="29" t="s">
@@ -3576,63 +3576,63 @@
       </c>
     </row>
     <row r="46" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="88"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="71"/>
       <c r="D46" s="4">
         <v>13</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="70"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="59"/>
-      <c r="J46" s="65"/>
-      <c r="K46" s="59"/>
-      <c r="L46" s="61"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="23"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="86"/>
+      <c r="I46" s="91"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="91"/>
+      <c r="L46" s="103"/>
+      <c r="M46" s="44"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="24"/>
       <c r="S46" s="30"/>
     </row>
     <row r="47" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="84"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="89"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="4">
         <v>14</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="59"/>
-      <c r="J47" s="65"/>
-      <c r="K47" s="59"/>
-      <c r="L47" s="61"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="28"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="86"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="91"/>
+      <c r="J47" s="86"/>
+      <c r="K47" s="91"/>
+      <c r="L47" s="103"/>
+      <c r="M47" s="44"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="25"/>
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="83" t="s">
+      <c r="A48" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48" s="52">
         <v>15</v>
       </c>
-      <c r="C48" s="87" t="s">
+      <c r="C48" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D48" s="4">
@@ -3641,31 +3641,31 @@
       <c r="E48" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F48" s="70"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="59" t="s">
+      <c r="F48" s="87"/>
+      <c r="G48" s="86"/>
+      <c r="H48" s="86"/>
+      <c r="I48" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="65" t="s">
+      <c r="J48" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="K48" s="59" t="s">
+      <c r="K48" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="L48" s="61" t="s">
+      <c r="L48" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="M48" s="39"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="22" t="s">
+      <c r="M48" s="44"/>
+      <c r="N48" s="27"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Q48" s="32" t="s">
+      <c r="Q48" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="R48" s="22" t="s">
+      <c r="R48" s="23" t="s">
         <v>67</v>
       </c>
       <c r="S48" s="29" t="s">
@@ -3673,63 +3673,63 @@
       </c>
     </row>
     <row r="49" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="88"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="71"/>
       <c r="D49" s="4">
         <v>17</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="70"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="65"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="61"/>
-      <c r="M49" s="39"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="23"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="86"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="91"/>
+      <c r="J49" s="86"/>
+      <c r="K49" s="91"/>
+      <c r="L49" s="103"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="24"/>
       <c r="S49" s="30"/>
     </row>
     <row r="50" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="84"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="89"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="4">
         <v>18</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="70"/>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="65"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="61"/>
-      <c r="M50" s="39"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="23"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="86"/>
+      <c r="I50" s="91"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="91"/>
+      <c r="L50" s="103"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="24"/>
       <c r="S50" s="30"/>
     </row>
     <row r="51" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="83" t="s">
+      <c r="A51" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51" s="52">
         <v>19</v>
       </c>
-      <c r="C51" s="87" t="s">
+      <c r="C51" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D51" s="4">
@@ -3738,56 +3738,56 @@
       <c r="E51" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F51" s="70"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="59"/>
-      <c r="J51" s="65"/>
-      <c r="K51" s="59"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="39"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="28"/>
-      <c r="Q51" s="34"/>
-      <c r="R51" s="28"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="86"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="91"/>
+      <c r="J51" s="86"/>
+      <c r="K51" s="91"/>
+      <c r="L51" s="103"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="28"/>
+      <c r="R51" s="25"/>
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="88"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="4">
         <v>21</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="70"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="59" t="s">
+      <c r="F52" s="87"/>
+      <c r="G52" s="86"/>
+      <c r="H52" s="86"/>
+      <c r="I52" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="J52" s="65" t="s">
+      <c r="J52" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="K52" s="59" t="s">
+      <c r="K52" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="L52" s="61" t="s">
+      <c r="L52" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="M52" s="39"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="22" t="s">
+      <c r="M52" s="44"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q52" s="32" t="s">
+      <c r="Q52" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="R52" s="22" t="s">
+      <c r="R52" s="23" t="s">
         <v>70</v>
       </c>
       <c r="S52" s="29" t="s">
@@ -3795,38 +3795,38 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="84"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="89"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="4">
         <v>22</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="65"/>
-      <c r="H53" s="65"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="65"/>
-      <c r="K53" s="59"/>
-      <c r="L53" s="61"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="23"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="86"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="86"/>
+      <c r="K53" s="91"/>
+      <c r="L53" s="103"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="24"/>
       <c r="S53" s="30"/>
     </row>
     <row r="54" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="83" t="s">
+      <c r="A54" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="52">
         <v>23</v>
       </c>
-      <c r="C54" s="87" t="s">
+      <c r="C54" s="70" t="s">
         <v>24</v>
       </c>
       <c r="D54" s="4">
@@ -3835,81 +3835,81 @@
       <c r="E54" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="70"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="65"/>
-      <c r="K54" s="59"/>
-      <c r="L54" s="61"/>
-      <c r="M54" s="39"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="23"/>
+      <c r="F54" s="87"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="86"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="86"/>
+      <c r="K54" s="91"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="24"/>
       <c r="S54" s="30"/>
     </row>
     <row r="55" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="88"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="4">
         <v>25</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="70"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="65"/>
-      <c r="K55" s="59"/>
-      <c r="L55" s="61"/>
-      <c r="M55" s="39"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="28"/>
+      <c r="F55" s="87"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="103"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="25"/>
       <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="84"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="89"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="45"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="4">
         <v>26</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="70"/>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="59" t="s">
+      <c r="F56" s="87"/>
+      <c r="G56" s="86"/>
+      <c r="H56" s="86"/>
+      <c r="I56" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="J56" s="65" t="s">
+      <c r="J56" s="86" t="s">
         <v>105</v>
       </c>
-      <c r="K56" s="59" t="s">
+      <c r="K56" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="L56" s="61" t="s">
+      <c r="L56" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="M56" s="39"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="22" t="s">
+      <c r="M56" s="44"/>
+      <c r="N56" s="27"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q56" s="32" t="s">
+      <c r="Q56" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="R56" s="22" t="s">
+      <c r="R56" s="23" t="s">
         <v>74</v>
       </c>
       <c r="S56" s="29" t="s">
@@ -3917,81 +3917,81 @@
       </c>
     </row>
     <row r="57" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="83" t="s">
+      <c r="A57" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57" s="52">
         <v>27</v>
       </c>
-      <c r="C57" s="93" t="s">
+      <c r="C57" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="52">
         <v>28</v>
       </c>
-      <c r="E57" s="108" t="s">
+      <c r="E57" s="60" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="70"/>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="59"/>
-      <c r="J57" s="65"/>
-      <c r="K57" s="59"/>
-      <c r="L57" s="61"/>
-      <c r="M57" s="39"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="23"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="86"/>
+      <c r="H57" s="86"/>
+      <c r="I57" s="91"/>
+      <c r="J57" s="86"/>
+      <c r="K57" s="91"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="27"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="24"/>
       <c r="S57" s="30"/>
     </row>
     <row r="58" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
-      <c r="B58" s="39"/>
-      <c r="C58" s="94"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="70"/>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="59"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="59"/>
-      <c r="L58" s="61"/>
-      <c r="M58" s="39"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="23"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="86"/>
+      <c r="I58" s="91"/>
+      <c r="J58" s="86"/>
+      <c r="K58" s="91"/>
+      <c r="L58" s="103"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="24"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="24"/>
       <c r="S58" s="30"/>
     </row>
     <row r="59" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="84"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="95"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="75"/>
       <c r="D59" s="4">
         <v>29</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="71"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="60"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="60"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="40"/>
-      <c r="N59" s="42"/>
-      <c r="O59" s="42"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="42"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="58"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="96"/>
+      <c r="H59" s="96"/>
+      <c r="I59" s="95"/>
+      <c r="J59" s="96"/>
+      <c r="K59" s="95"/>
+      <c r="L59" s="106"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="34"/>
     </row>
     <row r="60" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3999,7 +3999,7 @@
       <c r="F62" s="6"/>
     </row>
     <row r="63" spans="1:19" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="107"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="7"/>
       <c r="C63" s="15"/>
       <c r="D63" s="7"/>
@@ -4007,7 +4007,7 @@
       <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:19" s="9" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="107"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="7"/>
       <c r="C64" s="15"/>
       <c r="D64" s="7"/>
@@ -4015,7 +4015,7 @@
       <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:19" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="107"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="7"/>
       <c r="C65" s="15"/>
       <c r="D65" s="7"/>
@@ -4023,31 +4023,31 @@
       <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="104" t="s">
+      <c r="A66" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="105"/>
-      <c r="C66" s="105"/>
-      <c r="D66" s="105"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="43" t="s">
+      <c r="B66" s="82"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="44"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="43" t="s">
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="N66" s="44"/>
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
-      <c r="Q66" s="44"/>
-      <c r="R66" s="44"/>
-      <c r="S66" s="45"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="37"/>
     </row>
     <row r="67" spans="1:19" s="12" customFormat="1" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11"/>
@@ -4074,222 +4074,222 @@
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B68" s="80" t="s">
+      <c r="B68" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80" t="s">
+      <c r="C68" s="66"/>
+      <c r="D68" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E68" s="81"/>
-      <c r="F68" s="46" t="s">
+      <c r="E68" s="68"/>
+      <c r="F68" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G68" s="48" t="s">
+      <c r="G68" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="48" t="s">
+      <c r="H68" s="40" t="s">
         <v>40</v>
       </c>
       <c r="I68" s="16"/>
-      <c r="J68" s="48" t="s">
+      <c r="J68" s="40" t="s">
         <v>41</v>
       </c>
       <c r="K68" s="16"/>
-      <c r="L68" s="50" t="s">
+      <c r="L68" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="M68" s="46" t="s">
+      <c r="M68" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="N68" s="48" t="s">
+      <c r="N68" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="O68" s="48" t="s">
+      <c r="O68" s="40" t="s">
         <v>40</v>
       </c>
       <c r="P68" s="16"/>
-      <c r="Q68" s="48" t="s">
+      <c r="Q68" s="40" t="s">
         <v>41</v>
       </c>
       <c r="R68" s="16"/>
-      <c r="S68" s="50" t="s">
+      <c r="S68" s="42" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="98" t="s">
+      <c r="A69" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="39">
+      <c r="B69" s="44">
         <v>30</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D69" s="38">
+      <c r="D69" s="52">
         <v>31</v>
       </c>
-      <c r="E69" s="85" t="s">
+      <c r="E69" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="47"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
       <c r="I69" s="17"/>
-      <c r="J69" s="49"/>
+      <c r="J69" s="41"/>
       <c r="K69" s="17"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="47"/>
-      <c r="N69" s="49"/>
-      <c r="O69" s="49"/>
+      <c r="L69" s="43"/>
+      <c r="M69" s="39"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
       <c r="P69" s="17"/>
-      <c r="Q69" s="49"/>
+      <c r="Q69" s="41"/>
       <c r="R69" s="17"/>
-      <c r="S69" s="51"/>
+      <c r="S69" s="43"/>
     </row>
     <row r="70" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="99"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="69">
+      <c r="A70" s="64"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="99">
         <v>5</v>
       </c>
-      <c r="G70" s="72" t="s">
+      <c r="G70" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="H70" s="72" t="s">
+      <c r="H70" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="I70" s="63" t="s">
+      <c r="I70" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J70" s="72" t="s">
+      <c r="J70" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="K70" s="63" t="s">
+      <c r="K70" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="L70" s="64" t="s">
+      <c r="L70" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="M70" s="38">
+      <c r="M70" s="52">
         <v>8</v>
       </c>
-      <c r="N70" s="41" t="s">
+      <c r="N70" s="107" t="s">
         <v>94</v>
       </c>
-      <c r="O70" s="41" t="s">
+      <c r="O70" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="P70" s="36" t="s">
+      <c r="P70" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="Q70" s="41" t="s">
+      <c r="Q70" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="R70" s="36" t="s">
+      <c r="R70" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="S70" s="37" t="s">
+      <c r="S70" s="111" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="71" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="98" t="s">
+      <c r="A71" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="39">
+      <c r="B71" s="44">
         <v>32</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="38">
+      <c r="D71" s="52">
         <v>33</v>
       </c>
-      <c r="E71" s="85" t="s">
+      <c r="E71" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="F71" s="70"/>
-      <c r="G71" s="65"/>
-      <c r="H71" s="65"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="65"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="39"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="23"/>
+      <c r="F71" s="87"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="91"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="91"/>
+      <c r="L71" s="103"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="27"/>
+      <c r="O71" s="27"/>
+      <c r="P71" s="24"/>
+      <c r="Q71" s="27"/>
+      <c r="R71" s="24"/>
       <c r="S71" s="30"/>
     </row>
     <row r="72" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="99"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="65"/>
-      <c r="H72" s="65"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="65"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="39"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="28"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="28"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="45"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="86"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="91"/>
+      <c r="J72" s="86"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="103"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="27"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="28"/>
+      <c r="R72" s="25"/>
       <c r="S72" s="31"/>
     </row>
     <row r="73" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73" s="52">
         <v>34</v>
       </c>
-      <c r="C73" s="85" t="s">
+      <c r="C73" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="96">
+      <c r="D73" s="76">
         <v>35</v>
       </c>
-      <c r="E73" s="94" t="s">
+      <c r="E73" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="70"/>
-      <c r="G73" s="65"/>
-      <c r="H73" s="65"/>
-      <c r="I73" s="59" t="s">
+      <c r="F73" s="87"/>
+      <c r="G73" s="86"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="J73" s="68" t="s">
+      <c r="J73" s="104" t="s">
         <v>76</v>
       </c>
-      <c r="K73" s="59" t="s">
+      <c r="K73" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="L73" s="67" t="s">
+      <c r="L73" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="M73" s="39"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="22" t="s">
+      <c r="M73" s="44"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="27"/>
+      <c r="P73" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="Q73" s="32" t="s">
+      <c r="Q73" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="R73" s="22" t="s">
+      <c r="R73" s="23" t="s">
         <v>47</v>
       </c>
       <c r="S73" s="29" t="s">
@@ -4297,74 +4297,74 @@
       </c>
     </row>
     <row r="74" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="65"/>
-      <c r="H74" s="65"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="67"/>
-      <c r="M74" s="39"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="33"/>
-      <c r="R74" s="23"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="75"/>
+      <c r="F74" s="87"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="105"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="24"/>
       <c r="S74" s="30"/>
     </row>
     <row r="75" spans="1:19" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="86"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="38">
+      <c r="A75" s="54"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="56"/>
+      <c r="D75" s="52">
         <v>36</v>
       </c>
-      <c r="E75" s="110" t="s">
+      <c r="E75" s="84" t="s">
         <v>125</v>
       </c>
-      <c r="F75" s="70"/>
-      <c r="G75" s="65"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="68"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="39"/>
-      <c r="N75" s="33"/>
-      <c r="O75" s="33"/>
-      <c r="P75" s="28"/>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="28"/>
+      <c r="F75" s="87"/>
+      <c r="G75" s="86"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="91"/>
+      <c r="J75" s="104"/>
+      <c r="K75" s="91"/>
+      <c r="L75" s="105"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="28"/>
+      <c r="R75" s="25"/>
       <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="86"/>
-      <c r="B76" s="39"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="70"/>
-      <c r="G76" s="65"/>
-      <c r="H76" s="65"/>
-      <c r="I76" s="59"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="59"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="39"/>
-      <c r="N76" s="33"/>
-      <c r="O76" s="33"/>
-      <c r="P76" s="22" t="s">
+      <c r="A76" s="54"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="86"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="91"/>
+      <c r="J76" s="104"/>
+      <c r="K76" s="91"/>
+      <c r="L76" s="105"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="Q76" s="32" t="s">
+      <c r="Q76" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="R76" s="22" t="s">
+      <c r="R76" s="23" t="s">
         <v>48</v>
       </c>
       <c r="S76" s="29" t="s">
@@ -4372,432 +4372,432 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="83" t="s">
+      <c r="A77" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B77" s="52">
         <v>37</v>
       </c>
-      <c r="C77" s="93" t="s">
+      <c r="C77" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D77" s="38">
+      <c r="D77" s="52">
         <v>38</v>
       </c>
-      <c r="E77" s="93" t="s">
+      <c r="E77" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="F77" s="70"/>
-      <c r="G77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="59"/>
-      <c r="J77" s="68"/>
-      <c r="K77" s="59"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="39"/>
-      <c r="N77" s="33"/>
-      <c r="O77" s="33"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="33"/>
-      <c r="R77" s="23"/>
+      <c r="F77" s="87"/>
+      <c r="G77" s="86"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="91"/>
+      <c r="J77" s="104"/>
+      <c r="K77" s="91"/>
+      <c r="L77" s="105"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="27"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="27"/>
+      <c r="R77" s="24"/>
       <c r="S77" s="30"/>
     </row>
     <row r="78" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="86"/>
-      <c r="B78" s="39"/>
-      <c r="C78" s="94"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="94"/>
-      <c r="F78" s="70"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="59" t="s">
+      <c r="A78" s="54"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="74"/>
+      <c r="F78" s="87"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="J78" s="65" t="s">
+      <c r="J78" s="86" t="s">
         <v>80</v>
       </c>
-      <c r="K78" s="59" t="s">
+      <c r="K78" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="L78" s="61" t="s">
+      <c r="L78" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="M78" s="39"/>
-      <c r="N78" s="33"/>
-      <c r="O78" s="33"/>
-      <c r="P78" s="28"/>
-      <c r="Q78" s="34"/>
-      <c r="R78" s="28"/>
+      <c r="M78" s="44"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="27"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="28"/>
+      <c r="R78" s="25"/>
       <c r="S78" s="31"/>
     </row>
     <row r="79" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="84"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="95"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="95"/>
-      <c r="F79" s="70"/>
-      <c r="G79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="59"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="59"/>
-      <c r="L79" s="61"/>
-      <c r="M79" s="39"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
-      <c r="P79" s="22" t="s">
+      <c r="A79" s="62"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="75"/>
+      <c r="F79" s="87"/>
+      <c r="G79" s="86"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="91"/>
+      <c r="J79" s="86"/>
+      <c r="K79" s="91"/>
+      <c r="L79" s="103"/>
+      <c r="M79" s="44"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="27"/>
+      <c r="P79" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Q79" s="32" t="s">
+      <c r="Q79" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="R79" s="22" t="s">
+      <c r="R79" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="S79" s="25" t="s">
+      <c r="S79" s="109" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="83" t="s">
+      <c r="A80" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="38">
+      <c r="B80" s="52">
         <v>39</v>
       </c>
-      <c r="C80" s="93" t="s">
+      <c r="C80" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="38">
+      <c r="D80" s="52">
         <v>40</v>
       </c>
-      <c r="E80" s="93" t="s">
+      <c r="E80" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="F80" s="70"/>
-      <c r="G80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="59"/>
-      <c r="J80" s="65"/>
-      <c r="K80" s="59"/>
-      <c r="L80" s="61"/>
-      <c r="M80" s="39"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="33"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="26"/>
+      <c r="F80" s="87"/>
+      <c r="G80" s="86"/>
+      <c r="H80" s="86"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="86"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="103"/>
+      <c r="M80" s="44"/>
+      <c r="N80" s="27"/>
+      <c r="O80" s="27"/>
+      <c r="P80" s="24"/>
+      <c r="Q80" s="27"/>
+      <c r="R80" s="24"/>
+      <c r="S80" s="56"/>
     </row>
     <row r="81" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="86"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="94"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="94"/>
-      <c r="F81" s="70"/>
-      <c r="G81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="59" t="s">
+      <c r="A81" s="54"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="74"/>
+      <c r="F81" s="87"/>
+      <c r="G81" s="86"/>
+      <c r="H81" s="86"/>
+      <c r="I81" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="65" t="s">
+      <c r="J81" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="K81" s="59" t="s">
+      <c r="K81" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="L81" s="61" t="s">
+      <c r="L81" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="M81" s="39"/>
-      <c r="N81" s="33"/>
-      <c r="O81" s="33"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="33"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="26"/>
+      <c r="M81" s="44"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="24"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="24"/>
+      <c r="S81" s="56"/>
     </row>
     <row r="82" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="84"/>
-      <c r="B82" s="40"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="94"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="59"/>
-      <c r="J82" s="65"/>
-      <c r="K82" s="59"/>
-      <c r="L82" s="61"/>
-      <c r="M82" s="39"/>
-      <c r="N82" s="33"/>
-      <c r="O82" s="33"/>
-      <c r="P82" s="28"/>
-      <c r="Q82" s="34"/>
-      <c r="R82" s="28"/>
-      <c r="S82" s="35"/>
+      <c r="A82" s="62"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="87"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="86"/>
+      <c r="I82" s="91"/>
+      <c r="J82" s="86"/>
+      <c r="K82" s="91"/>
+      <c r="L82" s="103"/>
+      <c r="M82" s="44"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="27"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="28"/>
+      <c r="R82" s="25"/>
+      <c r="S82" s="110"/>
     </row>
     <row r="83" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="83" t="s">
+      <c r="A83" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="38">
+      <c r="B83" s="52">
         <v>41</v>
       </c>
-      <c r="C83" s="90" t="s">
+      <c r="C83" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="D83" s="38"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="70"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="59"/>
-      <c r="J83" s="65"/>
-      <c r="K83" s="59"/>
-      <c r="L83" s="61"/>
-      <c r="M83" s="39"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="22" t="s">
+      <c r="D83" s="52"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="87"/>
+      <c r="G83" s="86"/>
+      <c r="H83" s="86"/>
+      <c r="I83" s="91"/>
+      <c r="J83" s="86"/>
+      <c r="K83" s="91"/>
+      <c r="L83" s="103"/>
+      <c r="M83" s="44"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q83" s="32" t="s">
+      <c r="Q83" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="R83" s="22" t="s">
+      <c r="R83" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="S83" s="25" t="s">
+      <c r="S83" s="109" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="86"/>
-      <c r="B84" s="39"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="60"/>
-      <c r="L84" s="62"/>
-      <c r="M84" s="39"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="23"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="23"/>
-      <c r="S84" s="26"/>
+      <c r="A84" s="54"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="71"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="86"/>
+      <c r="I84" s="95"/>
+      <c r="J84" s="96"/>
+      <c r="K84" s="95"/>
+      <c r="L84" s="106"/>
+      <c r="M84" s="44"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="24"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="24"/>
+      <c r="S84" s="56"/>
     </row>
     <row r="85" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="84"/>
-      <c r="B85" s="40"/>
-      <c r="C85" s="92"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="70"/>
-      <c r="G85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="59" t="s">
+      <c r="A85" s="62"/>
+      <c r="B85" s="45"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="72"/>
+      <c r="F85" s="87"/>
+      <c r="G85" s="86"/>
+      <c r="H85" s="86"/>
+      <c r="I85" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="J85" s="65" t="s">
+      <c r="J85" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="K85" s="59" t="s">
+      <c r="K85" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="L85" s="61" t="s">
+      <c r="L85" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="M85" s="39"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="23"/>
-      <c r="S85" s="26"/>
+      <c r="M85" s="44"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="24"/>
+      <c r="Q85" s="27"/>
+      <c r="R85" s="24"/>
+      <c r="S85" s="56"/>
     </row>
     <row r="86" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="83" t="s">
+      <c r="A86" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B86" s="38">
+      <c r="B86" s="52">
         <v>42</v>
       </c>
-      <c r="C86" s="90" t="s">
+      <c r="C86" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="D86" s="38"/>
-      <c r="E86" s="87"/>
-      <c r="F86" s="70"/>
-      <c r="G86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="59"/>
-      <c r="J86" s="65"/>
-      <c r="K86" s="59"/>
-      <c r="L86" s="61"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="42"/>
-      <c r="O86" s="42"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="42"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="27"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="70"/>
+      <c r="F86" s="87"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="86"/>
+      <c r="I86" s="91"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="91"/>
+      <c r="L86" s="103"/>
+      <c r="M86" s="45"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="32"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="32"/>
+      <c r="S86" s="59"/>
     </row>
     <row r="87" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="86"/>
-      <c r="B87" s="39"/>
-      <c r="C87" s="91"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="88"/>
-      <c r="F87" s="70"/>
-      <c r="G87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="59"/>
-      <c r="J87" s="65"/>
-      <c r="K87" s="59"/>
-      <c r="L87" s="61"/>
+      <c r="A87" s="54"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="79"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="87"/>
+      <c r="G87" s="86"/>
+      <c r="H87" s="86"/>
+      <c r="I87" s="91"/>
+      <c r="J87" s="86"/>
+      <c r="K87" s="91"/>
+      <c r="L87" s="103"/>
     </row>
     <row r="88" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="84"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="92"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="59"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="59"/>
-      <c r="L88" s="61"/>
+      <c r="A88" s="62"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="87"/>
+      <c r="G88" s="86"/>
+      <c r="H88" s="86"/>
+      <c r="I88" s="91"/>
+      <c r="J88" s="86"/>
+      <c r="K88" s="91"/>
+      <c r="L88" s="103"/>
     </row>
     <row r="89" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="83" t="s">
+      <c r="A89" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="B89" s="38">
+      <c r="B89" s="52">
         <v>43</v>
       </c>
-      <c r="C89" s="93" t="s">
+      <c r="C89" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="D89" s="38">
+      <c r="D89" s="52">
         <v>44</v>
       </c>
-      <c r="E89" s="93" t="s">
+      <c r="E89" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="70"/>
-      <c r="G89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="59" t="s">
+      <c r="F89" s="87"/>
+      <c r="G89" s="86"/>
+      <c r="H89" s="86"/>
+      <c r="I89" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="J89" s="65" t="s">
+      <c r="J89" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="K89" s="59" t="s">
+      <c r="K89" s="91" t="s">
         <v>74</v>
       </c>
-      <c r="L89" s="61" t="s">
+      <c r="L89" s="103" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="86"/>
-      <c r="B90" s="39"/>
-      <c r="C90" s="94"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="94"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="59"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="59"/>
-      <c r="L90" s="61"/>
+      <c r="A90" s="54"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="87"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="86"/>
+      <c r="I90" s="91"/>
+      <c r="J90" s="86"/>
+      <c r="K90" s="91"/>
+      <c r="L90" s="103"/>
     </row>
     <row r="91" spans="1:19" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="84"/>
-      <c r="B91" s="40"/>
-      <c r="C91" s="95"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="94"/>
-      <c r="F91" s="70"/>
-      <c r="G91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="59"/>
-      <c r="L91" s="61"/>
+      <c r="A91" s="62"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="87"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="86"/>
+      <c r="I91" s="91"/>
+      <c r="J91" s="86"/>
+      <c r="K91" s="91"/>
+      <c r="L91" s="103"/>
     </row>
     <row r="92" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="83" t="s">
+      <c r="A92" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B92" s="38">
+      <c r="B92" s="52">
         <v>45</v>
       </c>
-      <c r="C92" s="85" t="s">
+      <c r="C92" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D92" s="38"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="71"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="60"/>
-      <c r="L92" s="62"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="98"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="96"/>
+      <c r="I92" s="95"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="95"/>
+      <c r="L92" s="106"/>
     </row>
     <row r="93" spans="1:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="86"/>
-      <c r="B93" s="39"/>
-      <c r="C93" s="26"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="100"/>
+      <c r="A93" s="54"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="56"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="58"/>
     </row>
     <row r="94" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="83" t="s">
+      <c r="A94" s="53" t="s">
         <v>114</v>
       </c>
-      <c r="B94" s="38">
+      <c r="B94" s="52">
         <v>46</v>
       </c>
-      <c r="C94" s="90" t="s">
+      <c r="C94" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="D94" s="38">
+      <c r="D94" s="52">
         <v>47</v>
       </c>
-      <c r="E94" s="93" t="s">
+      <c r="E94" s="73" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="86"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="94"/>
+      <c r="A95" s="54"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="79"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="74"/>
     </row>
     <row r="96" spans="1:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="84"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="92"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="95"/>
+      <c r="A96" s="62"/>
+      <c r="B96" s="45"/>
+      <c r="C96" s="80"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="75"/>
     </row>
     <row r="100" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F100" s="7"/>
@@ -4819,6 +4819,275 @@
     </row>
   </sheetData>
   <mergeCells count="293">
+    <mergeCell ref="R83:R86"/>
+    <mergeCell ref="S83:S86"/>
+    <mergeCell ref="R76:R78"/>
+    <mergeCell ref="S76:S78"/>
+    <mergeCell ref="P79:P82"/>
+    <mergeCell ref="Q79:Q82"/>
+    <mergeCell ref="R79:R82"/>
+    <mergeCell ref="S79:S82"/>
+    <mergeCell ref="R70:R72"/>
+    <mergeCell ref="S70:S72"/>
+    <mergeCell ref="P73:P75"/>
+    <mergeCell ref="Q73:Q75"/>
+    <mergeCell ref="R73:R75"/>
+    <mergeCell ref="S73:S75"/>
+    <mergeCell ref="M70:M86"/>
+    <mergeCell ref="N70:N86"/>
+    <mergeCell ref="O70:O86"/>
+    <mergeCell ref="P70:P72"/>
+    <mergeCell ref="Q70:Q72"/>
+    <mergeCell ref="P76:P78"/>
+    <mergeCell ref="Q76:Q78"/>
+    <mergeCell ref="P83:P86"/>
+    <mergeCell ref="Q83:Q86"/>
+    <mergeCell ref="M66:S66"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="N68:N69"/>
+    <mergeCell ref="O68:O69"/>
+    <mergeCell ref="Q68:Q69"/>
+    <mergeCell ref="S68:S69"/>
+    <mergeCell ref="R17:R20"/>
+    <mergeCell ref="S17:S20"/>
+    <mergeCell ref="P21:P24"/>
+    <mergeCell ref="Q21:Q24"/>
+    <mergeCell ref="R21:R24"/>
+    <mergeCell ref="S21:S24"/>
+    <mergeCell ref="R9:R13"/>
+    <mergeCell ref="S9:S13"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="Q14:Q16"/>
+    <mergeCell ref="R14:R16"/>
+    <mergeCell ref="S14:S16"/>
+    <mergeCell ref="M6:M28"/>
+    <mergeCell ref="N6:N28"/>
+    <mergeCell ref="O6:O28"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="Q6:Q8"/>
+    <mergeCell ref="P9:P13"/>
+    <mergeCell ref="Q9:Q13"/>
+    <mergeCell ref="P17:P20"/>
+    <mergeCell ref="Q17:Q20"/>
+    <mergeCell ref="P25:P28"/>
+    <mergeCell ref="Q25:Q28"/>
+    <mergeCell ref="R25:R28"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="R6:R8"/>
+    <mergeCell ref="S6:S8"/>
+    <mergeCell ref="M2:S2"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="K70:K72"/>
+    <mergeCell ref="L70:L72"/>
+    <mergeCell ref="F66:L66"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="J56:J59"/>
+    <mergeCell ref="K56:K59"/>
+    <mergeCell ref="L56:L59"/>
+    <mergeCell ref="L40:L44"/>
+    <mergeCell ref="K40:K44"/>
+    <mergeCell ref="I73:I77"/>
+    <mergeCell ref="J73:J77"/>
+    <mergeCell ref="K73:K77"/>
+    <mergeCell ref="L73:L77"/>
+    <mergeCell ref="F70:F92"/>
+    <mergeCell ref="G70:G92"/>
+    <mergeCell ref="H70:H92"/>
+    <mergeCell ref="I70:I72"/>
+    <mergeCell ref="J70:J72"/>
+    <mergeCell ref="I78:I80"/>
+    <mergeCell ref="J78:J80"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="J89:J92"/>
+    <mergeCell ref="I81:I84"/>
+    <mergeCell ref="J81:J84"/>
+    <mergeCell ref="K81:K84"/>
+    <mergeCell ref="L81:L84"/>
+    <mergeCell ref="K78:K80"/>
+    <mergeCell ref="L78:L80"/>
+    <mergeCell ref="I85:I88"/>
+    <mergeCell ref="J85:J88"/>
+    <mergeCell ref="K85:K88"/>
+    <mergeCell ref="L85:L88"/>
+    <mergeCell ref="F37:F59"/>
+    <mergeCell ref="G37:G59"/>
+    <mergeCell ref="H37:H59"/>
+    <mergeCell ref="K37:K39"/>
+    <mergeCell ref="L37:L39"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="J37:J39"/>
+    <mergeCell ref="I45:I47"/>
+    <mergeCell ref="J45:J47"/>
+    <mergeCell ref="I40:I44"/>
+    <mergeCell ref="J40:J44"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="K45:K47"/>
+    <mergeCell ref="L45:L47"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="J48:J51"/>
+    <mergeCell ref="G15:G20"/>
+    <mergeCell ref="F15:F20"/>
+    <mergeCell ref="F21:F30"/>
+    <mergeCell ref="G21:G30"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="H21:H30"/>
+    <mergeCell ref="F33:L33"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="K23:K26"/>
+    <mergeCell ref="L23:L26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="K27:K30"/>
+    <mergeCell ref="L27:L30"/>
+    <mergeCell ref="L17:L20"/>
+    <mergeCell ref="K17:K20"/>
+    <mergeCell ref="I17:I20"/>
+    <mergeCell ref="J17:J20"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="H15:H20"/>
+    <mergeCell ref="H6:H14"/>
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="G6:G14"/>
+    <mergeCell ref="F2:L2"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L8:L10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="I8:I10"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="D86:D88"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="D83:D85"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="A80:A82"/>
+    <mergeCell ref="B80:B82"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="D80:D82"/>
+    <mergeCell ref="E80:E82"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="A54:A56"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="E77:E79"/>
+    <mergeCell ref="D77:D79"/>
+    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="B77:B79"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="B57:B59"/>
+    <mergeCell ref="A57:A59"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="A73:A76"/>
+    <mergeCell ref="B73:B76"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="D92:D93"/>
+    <mergeCell ref="C92:C93"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="D89:D91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="A86:A88"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="E86:E88"/>
+    <mergeCell ref="S40:S44"/>
+    <mergeCell ref="P45:P47"/>
+    <mergeCell ref="Q45:Q47"/>
+    <mergeCell ref="R45:R47"/>
+    <mergeCell ref="S45:S47"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="S48:S51"/>
     <mergeCell ref="P52:P55"/>
     <mergeCell ref="Q52:Q55"/>
     <mergeCell ref="R52:R55"/>
@@ -4843,280 +5112,11 @@
     <mergeCell ref="P40:P44"/>
     <mergeCell ref="Q40:Q44"/>
     <mergeCell ref="R40:R44"/>
-    <mergeCell ref="S40:S44"/>
-    <mergeCell ref="P45:P47"/>
-    <mergeCell ref="Q45:Q47"/>
-    <mergeCell ref="R45:R47"/>
-    <mergeCell ref="S45:S47"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="S48:S51"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="A73:A76"/>
-    <mergeCell ref="B73:B76"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="D92:D93"/>
-    <mergeCell ref="C92:C93"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="B57:B59"/>
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="A54:A56"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="C54:C56"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="A77:A79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="A51:A53"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="A89:A91"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="E89:E91"/>
-    <mergeCell ref="A86:A88"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="E86:E88"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="E94:E96"/>
-    <mergeCell ref="D86:D88"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="D83:D85"/>
-    <mergeCell ref="A83:A85"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="A80:A82"/>
-    <mergeCell ref="B80:B82"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="D80:D82"/>
-    <mergeCell ref="E80:E82"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="H6:H14"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="G6:G14"/>
-    <mergeCell ref="F2:L2"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L8:L10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="I8:I10"/>
-    <mergeCell ref="J8:J10"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L17:L20"/>
-    <mergeCell ref="K17:K20"/>
-    <mergeCell ref="I17:I20"/>
-    <mergeCell ref="J17:J20"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="H15:H20"/>
-    <mergeCell ref="F33:L33"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="K23:K26"/>
-    <mergeCell ref="L23:L26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="K27:K30"/>
-    <mergeCell ref="L27:L30"/>
-    <mergeCell ref="G15:G20"/>
-    <mergeCell ref="F15:F20"/>
-    <mergeCell ref="F21:F30"/>
-    <mergeCell ref="G21:G30"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="H21:H30"/>
-    <mergeCell ref="F37:F59"/>
-    <mergeCell ref="G37:G59"/>
-    <mergeCell ref="H37:H59"/>
-    <mergeCell ref="K37:K39"/>
-    <mergeCell ref="L37:L39"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="J37:J39"/>
-    <mergeCell ref="I45:I47"/>
-    <mergeCell ref="J45:J47"/>
-    <mergeCell ref="I40:I44"/>
-    <mergeCell ref="J40:J44"/>
-    <mergeCell ref="J52:J55"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="K45:K47"/>
-    <mergeCell ref="L45:L47"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="J48:J51"/>
-    <mergeCell ref="I73:I77"/>
-    <mergeCell ref="J73:J77"/>
-    <mergeCell ref="K73:K77"/>
-    <mergeCell ref="L73:L77"/>
-    <mergeCell ref="F70:F92"/>
-    <mergeCell ref="G70:G92"/>
-    <mergeCell ref="H70:H92"/>
-    <mergeCell ref="I70:I72"/>
-    <mergeCell ref="J70:J72"/>
-    <mergeCell ref="I78:I80"/>
-    <mergeCell ref="J78:J80"/>
-    <mergeCell ref="I89:I92"/>
-    <mergeCell ref="J89:J92"/>
-    <mergeCell ref="I81:I84"/>
-    <mergeCell ref="J81:J84"/>
-    <mergeCell ref="K81:K84"/>
-    <mergeCell ref="L81:L84"/>
-    <mergeCell ref="K78:K80"/>
-    <mergeCell ref="L78:L80"/>
-    <mergeCell ref="I85:I88"/>
-    <mergeCell ref="J85:J88"/>
-    <mergeCell ref="K85:K88"/>
-    <mergeCell ref="L85:L88"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="R6:R8"/>
-    <mergeCell ref="S6:S8"/>
-    <mergeCell ref="M2:S2"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="K70:K72"/>
-    <mergeCell ref="L70:L72"/>
-    <mergeCell ref="F66:L66"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="I56:I59"/>
-    <mergeCell ref="J56:J59"/>
-    <mergeCell ref="K56:K59"/>
-    <mergeCell ref="L56:L59"/>
-    <mergeCell ref="L40:L44"/>
-    <mergeCell ref="K40:K44"/>
-    <mergeCell ref="R9:R13"/>
-    <mergeCell ref="S9:S13"/>
-    <mergeCell ref="P14:P16"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="R14:R16"/>
-    <mergeCell ref="S14:S16"/>
-    <mergeCell ref="M6:M28"/>
-    <mergeCell ref="N6:N28"/>
-    <mergeCell ref="O6:O28"/>
-    <mergeCell ref="P6:P8"/>
-    <mergeCell ref="Q6:Q8"/>
-    <mergeCell ref="P9:P13"/>
-    <mergeCell ref="Q9:Q13"/>
-    <mergeCell ref="P17:P20"/>
-    <mergeCell ref="Q17:Q20"/>
-    <mergeCell ref="P25:P28"/>
-    <mergeCell ref="Q25:Q28"/>
-    <mergeCell ref="R25:R28"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="M66:S66"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="N68:N69"/>
-    <mergeCell ref="O68:O69"/>
-    <mergeCell ref="Q68:Q69"/>
-    <mergeCell ref="S68:S69"/>
-    <mergeCell ref="R17:R20"/>
-    <mergeCell ref="S17:S20"/>
-    <mergeCell ref="P21:P24"/>
-    <mergeCell ref="Q21:Q24"/>
-    <mergeCell ref="R21:R24"/>
-    <mergeCell ref="S21:S24"/>
-    <mergeCell ref="M70:M86"/>
-    <mergeCell ref="N70:N86"/>
-    <mergeCell ref="O70:O86"/>
-    <mergeCell ref="P70:P72"/>
-    <mergeCell ref="Q70:Q72"/>
-    <mergeCell ref="P76:P78"/>
-    <mergeCell ref="Q76:Q78"/>
-    <mergeCell ref="P83:P86"/>
-    <mergeCell ref="Q83:Q86"/>
-    <mergeCell ref="R83:R86"/>
-    <mergeCell ref="S83:S86"/>
-    <mergeCell ref="R76:R78"/>
-    <mergeCell ref="S76:S78"/>
-    <mergeCell ref="P79:P82"/>
-    <mergeCell ref="Q79:Q82"/>
-    <mergeCell ref="R79:R82"/>
-    <mergeCell ref="S79:S82"/>
-    <mergeCell ref="R70:R72"/>
-    <mergeCell ref="S70:S72"/>
-    <mergeCell ref="P73:P75"/>
-    <mergeCell ref="Q73:Q75"/>
-    <mergeCell ref="R73:R75"/>
-    <mergeCell ref="S73:S75"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0" alignWithMargins="0">
-    <oddHeader>&amp;L&amp;G&amp;RMetodología de Prueba de Sistemas</oddHeader>
+    <oddHeader>&amp;L&amp;G&amp;RMetodología de Pruebas de Sistemas</oddHeader>
     <oddFooter>&amp;L         
 Comisión F
 González Benítez, Mario David&amp;R
